--- a/data/import_template_dep_dropdowns_with_sample_v2.xlsx
+++ b/data/import_template_dep_dropdowns_with_sample_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atana/Dev/electron/mil-tracker/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\group8\Documents\DEV\ai-e-nis\mil-tracker\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B840ED-39AD-C649-9293-0974401D6B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A4341-D278-4202-BCCC-68B2B96803EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19440" tabRatio="780" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="780" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="1" state="hidden" r:id="rId1"/>
@@ -1732,9 +1732,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1742,57 +1742,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1800,27 +1800,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1828,12 +1828,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1841,72 +1841,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1914,22 +1914,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1937,22 +1937,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1960,32 +1960,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1993,17 +1993,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2011,17 +2011,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>57</v>
       </c>
@@ -2043,30 +2043,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView zoomScale="276" zoomScaleNormal="276" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>260</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>TRName1 TRSurname1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>TRName2 TRSurname2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>281</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>TRName3 TRSurname3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>TRName4 TRSurname4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>283</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>TRName5 TRSurname5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>TRName6 TRSurname6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>285</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>TRName7 TRSurname7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>286</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>TRName8 TRSurname8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>TRName9 TRSurname9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>TRName10 TRSurname10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>TRName11 TRSurname11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>290</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>TRName12 TRSurname12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>TRName13 TRSurname13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>TRName14 TRSurname14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>TRName15 TRSurname15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>Giorgos Ioannou</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>Nikolaos Papadopoulos</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>Maria Kosta</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>297</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>John Smith</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>298</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>Alice Wright</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>299</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>Hans Müller</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>Pierre Dubois</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>301</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>Marco Rossi</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>302</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>Carlos Garcia</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -3022,5851 +3022,5851 @@
         <v>Anna Kowalska</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O66" t="str">
         <f t="shared" ref="O66:O129" si="1">TRIM(A66&amp;" "&amp;B66)</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O67" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O84" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O89" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O90" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O97" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O99" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O103" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O112" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O113" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O117" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O119" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O120" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O121" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O123" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O124" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O126" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O127" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O128" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O129" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O130" t="str">
         <f t="shared" ref="O130:O193" si="2">TRIM(A130&amp;" "&amp;B130)</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O131" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O132" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O133" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O134" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O135" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O136" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O137" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O138" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O139" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O141" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O142" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O143" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O144" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O145" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O146" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O147" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O148" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O152" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O155" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O156" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O157" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O158" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O159" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O160" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O161" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O162" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O163" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O164" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O165" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O167" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O168" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O169" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O170" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O172" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O173" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O174" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O175" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O176" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O177" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O178" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O179" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O180" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O181" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O182" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O183" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O184" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O185" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O186" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O187" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O188" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O189" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O190" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O191" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O192" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O193" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O194" t="str">
         <f t="shared" ref="O194:O257" si="3">TRIM(A194&amp;" "&amp;B194)</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O195" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O196" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O197" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O198" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O199" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O200" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O201" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O202" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O203" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O204" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O205" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O206" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O207" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O208" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O209" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O210" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O211" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O212" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O213" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O214" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O215" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O216" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O217" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O218" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O219" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O220" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O221" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O222" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O223" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O227" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O228" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O230" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O231" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O232" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O233" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O234" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O235" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O236" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O237" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O238" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O239" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O240" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O241" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O242" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O243" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O244" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O245" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O246" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O247" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O248" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O249" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O250" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O251" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O252" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O253" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O254" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O255" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O256" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O257" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O258" t="str">
         <f t="shared" ref="O258:O321" si="4">TRIM(A258&amp;" "&amp;B258)</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O259" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O260" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O261" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O262" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O263" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O264" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O265" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O266" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O267" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O268" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O269" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O270" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O271" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O272" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O273" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O274" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O275" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O276" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O277" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O278" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O279" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O280" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O281" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O282" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O283" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O284" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O285" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O286" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O287" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O288" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O289" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O290" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O291" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O292" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O293" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O294" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O295" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O296" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O297" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O298" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O299" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O300" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O301" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O302" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O303" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O304" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O305" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O306" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O307" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O308" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O309" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O310" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O311" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O312" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O313" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O314" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O315" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O316" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O317" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O318" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O319" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O320" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O321" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O322" t="str">
         <f t="shared" ref="O322:O385" si="5">TRIM(A322&amp;" "&amp;B322)</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O323" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O324" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O325" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O326" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O327" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O328" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O329" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O330" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O331" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O332" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O333" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O334" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O335" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O336" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O337" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O338" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O339" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O340" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O341" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O342" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O343" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O344" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O345" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O346" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O347" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O348" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O349" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O350" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O351" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O352" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O353" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O354" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O355" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O356" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O357" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O358" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O359" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O360" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O361" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O362" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O363" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O364" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O365" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O366" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O367" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O368" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O369" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O370" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O371" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O372" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O373" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O374" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O375" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O376" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O377" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O378" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O379" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O380" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O381" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O382" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O383" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O384" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O385" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O386" t="str">
         <f t="shared" ref="O386:O449" si="6">TRIM(A386&amp;" "&amp;B386)</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O387" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O388" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O389" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O390" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O391" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O392" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O393" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O394" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O395" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="396" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O396" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="397" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O397" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O398" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O399" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O400" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O401" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O402" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O403" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O404" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="405" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O405" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O406" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O407" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O408" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O409" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O410" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O411" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O412" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O413" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O414" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O415" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O416" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="417" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O417" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O418" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="419" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O419" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O420" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O421" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O422" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="423" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O423" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O424" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O425" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O426" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O427" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O428" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O429" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O430" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O431" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O432" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O433" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O434" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="435" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O435" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="436" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O436" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O437" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O438" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O439" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O440" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O441" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O442" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O443" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O444" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O445" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O446" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O447" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O448" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O449" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O450" t="str">
         <f t="shared" ref="O450:O513" si="7">TRIM(A450&amp;" "&amp;B450)</f>
         <v/>
       </c>
     </row>
-    <row r="451" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O451" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O452" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O453" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O454" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="455" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O455" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="456" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O456" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O457" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O458" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O459" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O460" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O461" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O462" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O463" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O464" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O465" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O466" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="467" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O467" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="468" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O468" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O469" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O470" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O471" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O472" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="473" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O473" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O474" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O475" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O476" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O477" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O478" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O479" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="480" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O480" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O481" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O482" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O483" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O484" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O485" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O486" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O487" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O488" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O489" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O490" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O491" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O492" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="493" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O493" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O494" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O495" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O496" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="497" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O497" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="498" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O498" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O499" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O500" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O501" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O502" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O503" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O504" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="505" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O505" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O506" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O507" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="508" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O508" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="509" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O509" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="510" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O510" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="511" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O511" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="512" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O512" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="513" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O513" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="514" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O514" t="str">
         <f t="shared" ref="O514:O577" si="8">TRIM(A514&amp;" "&amp;B514)</f>
         <v/>
       </c>
     </row>
-    <row r="515" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="515" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O515" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="516" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O516" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="517" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O517" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="518" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O518" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="519" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O519" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="520" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O520" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="521" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="521" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O521" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="522" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O522" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="523" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O523" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="524" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O524" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="525" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O525" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="526" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O526" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="527" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O527" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="528" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O528" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="529" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O529" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="530" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O530" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="531" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O531" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="532" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O532" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="533" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O533" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="534" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O534" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="535" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O535" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="536" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O536" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="537" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O537" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="538" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O538" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="539" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O539" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="540" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O540" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="541" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="541" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O541" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="542" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="542" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O542" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="543" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="543" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O543" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="544" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="544" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O544" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="545" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="545" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O545" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="546" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="546" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O546" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="547" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="547" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O547" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="548" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="548" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O548" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="549" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="549" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O549" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="550" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="550" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O550" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="551" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="551" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O551" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="552" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="552" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O552" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="553" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="553" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O553" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="554" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="554" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O554" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="555" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="555" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O555" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="556" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="556" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O556" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="557" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="557" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O557" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="558" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="558" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O558" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="559" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="559" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O559" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="560" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="560" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O560" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="561" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="561" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O561" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="562" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="562" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O562" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="563" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="563" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O563" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="564" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="564" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O564" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="565" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="565" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O565" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="566" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="566" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O566" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="567" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="567" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O567" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="568" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="568" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O568" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="569" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="569" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O569" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="570" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="570" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O570" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="571" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="571" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O571" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="572" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="572" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O572" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="573" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="573" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O573" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="574" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="574" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O574" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="575" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="575" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O575" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="576" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="576" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O576" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="577" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="577" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O577" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="578" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="578" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O578" t="str">
         <f t="shared" ref="O578:O641" si="9">TRIM(A578&amp;" "&amp;B578)</f>
         <v/>
       </c>
     </row>
-    <row r="579" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="579" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O579" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="580" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="580" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O580" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="581" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="581" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O581" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="582" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="582" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O582" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="583" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="583" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O583" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="584" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="584" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O584" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="585" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="585" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O585" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="586" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="586" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O586" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="587" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="587" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O587" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="588" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="588" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O588" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="589" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="589" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O589" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="590" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="590" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O590" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="591" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="591" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O591" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="592" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="592" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O592" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="593" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="593" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O593" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="594" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="594" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O594" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="595" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="595" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O595" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="596" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="596" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O596" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="597" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="597" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O597" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="598" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="598" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O598" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="599" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="599" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O599" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="600" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="600" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O600" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="601" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="601" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O601" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="602" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="602" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O602" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="603" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="603" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O603" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="604" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="604" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O604" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="605" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="605" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O605" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="606" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="606" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O606" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="607" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="607" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O607" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="608" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="608" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O608" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="609" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="609" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O609" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="610" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="610" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O610" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="611" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="611" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O611" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="612" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="612" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O612" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="613" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="613" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O613" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="614" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="614" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O614" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="615" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="615" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O615" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="616" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="616" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O616" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="617" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="617" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O617" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="618" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="618" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O618" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="619" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="619" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O619" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="620" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="620" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O620" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="621" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="621" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O621" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="622" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="622" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O622" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="623" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="623" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O623" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="624" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="624" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O624" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="625" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="625" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O625" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="626" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="626" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O626" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="627" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="627" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O627" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="628" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="628" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O628" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="629" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="629" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O629" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="630" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="630" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O630" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="631" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="631" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O631" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="632" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="632" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O632" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="633" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="633" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O633" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="634" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="634" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O634" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="635" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="635" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O635" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="636" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="636" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O636" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="637" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="637" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O637" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="638" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="638" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O638" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="639" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="639" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O639" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="640" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="640" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O640" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="641" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="641" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O641" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="642" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="642" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O642" t="str">
         <f t="shared" ref="O642:O705" si="10">TRIM(A642&amp;" "&amp;B642)</f>
         <v/>
       </c>
     </row>
-    <row r="643" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="643" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O643" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="644" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="644" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O644" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="645" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="645" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O645" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="646" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="646" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O646" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="647" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="647" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O647" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="648" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="648" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O648" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="649" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="649" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O649" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="650" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="650" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O650" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="651" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="651" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O651" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="652" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="652" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O652" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="653" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="653" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O653" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="654" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="654" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O654" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="655" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="655" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O655" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="656" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="656" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O656" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="657" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="657" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O657" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="658" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="658" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O658" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="659" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="659" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O659" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="660" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="660" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O660" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="661" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="661" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O661" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="662" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="662" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O662" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="663" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="663" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O663" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="664" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="664" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O664" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="665" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="665" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O665" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="666" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="666" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O666" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="667" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="667" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O667" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="668" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="668" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O668" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="669" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="669" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O669" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="670" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="670" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O670" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="671" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="671" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O671" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="672" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="672" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O672" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="673" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="673" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O673" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="674" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="674" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O674" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="675" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="675" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O675" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="676" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="676" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O676" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="677" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="677" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O677" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="678" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="678" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O678" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="679" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="679" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O679" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="680" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="680" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O680" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="681" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="681" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O681" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="682" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="682" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O682" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="683" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="683" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O683" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="684" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="684" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O684" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="685" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="685" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O685" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="686" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="686" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O686" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="687" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="687" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O687" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="688" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="688" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O688" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="689" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="689" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O689" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="690" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="690" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O690" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="691" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="691" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O691" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="692" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="692" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O692" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="693" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="693" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O693" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="694" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="694" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O694" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="695" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="695" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O695" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="696" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="696" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O696" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="697" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="697" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O697" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="698" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="698" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O698" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="699" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="699" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O699" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="700" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="700" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O700" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="701" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="701" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O701" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="702" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="702" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O702" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="703" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="703" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O703" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="704" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="704" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O704" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="705" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="705" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O705" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="706" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="706" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O706" t="str">
         <f t="shared" ref="O706:O769" si="11">TRIM(A706&amp;" "&amp;B706)</f>
         <v/>
       </c>
     </row>
-    <row r="707" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="707" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O707" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="708" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="708" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O708" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="709" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="709" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O709" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="710" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="710" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O710" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="711" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="711" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O711" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="712" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="712" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O712" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="713" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="713" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O713" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="714" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="714" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O714" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="715" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="715" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O715" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="716" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="716" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O716" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="717" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="717" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O717" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="718" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="718" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O718" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="719" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="719" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O719" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="720" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="720" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O720" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="721" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="721" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O721" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="722" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="722" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O722" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="723" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="723" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O723" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="724" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="724" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O724" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="725" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="725" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O725" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="726" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="726" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O726" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="727" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="727" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O727" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="728" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="728" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O728" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="729" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="729" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O729" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="730" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="730" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O730" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="731" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="731" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O731" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="732" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="732" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O732" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="733" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="733" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O733" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="734" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="734" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O734" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="735" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="735" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O735" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="736" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="736" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O736" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="737" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="737" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O737" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="738" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="738" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O738" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="739" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="739" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O739" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="740" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="740" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O740" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="741" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="741" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O741" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="742" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="742" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O742" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="743" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="743" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O743" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="744" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="744" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O744" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="745" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="745" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O745" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="746" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="746" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O746" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="747" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="747" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O747" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="748" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="748" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O748" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="749" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="749" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O749" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="750" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="750" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O750" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="751" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="751" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O751" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="752" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="752" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O752" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="753" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="753" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O753" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="754" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="754" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O754" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="755" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="755" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O755" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="756" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="756" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O756" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="757" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="757" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O757" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="758" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="758" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O758" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="759" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="759" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O759" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="760" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="760" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O760" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="761" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="761" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O761" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="762" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="762" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O762" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="763" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="763" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O763" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="764" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="764" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O764" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="765" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="765" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O765" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="766" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="766" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O766" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="767" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="767" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O767" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="768" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="768" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O768" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="769" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="769" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O769" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="770" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="770" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O770" t="str">
         <f t="shared" ref="O770:O833" si="12">TRIM(A770&amp;" "&amp;B770)</f>
         <v/>
       </c>
     </row>
-    <row r="771" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="771" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O771" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="772" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="772" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O772" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="773" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="773" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O773" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="774" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="774" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O774" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="775" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="775" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O775" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="776" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="776" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O776" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="777" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="777" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O777" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="778" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="778" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O778" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="779" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="779" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O779" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="780" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="780" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O780" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="781" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="781" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O781" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="782" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="782" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O782" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="783" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="783" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O783" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="784" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="784" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O784" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="785" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="785" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O785" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="786" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="786" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O786" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="787" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="787" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O787" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="788" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="788" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O788" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="789" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="789" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O789" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="790" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="790" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O790" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="791" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="791" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O791" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="792" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="792" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O792" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="793" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="793" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O793" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="794" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="794" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O794" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="795" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="795" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O795" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="796" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="796" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O796" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="797" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="797" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O797" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="798" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="798" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O798" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="799" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="799" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O799" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="800" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="800" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O800" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="801" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="801" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O801" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="802" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="802" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O802" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="803" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="803" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O803" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="804" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="804" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O804" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="805" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="805" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O805" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="806" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="806" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O806" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="807" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="807" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O807" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="808" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="808" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O808" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="809" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="809" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O809" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="810" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="810" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O810" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="811" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="811" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O811" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="812" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="812" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O812" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="813" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="813" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O813" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="814" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="814" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O814" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="815" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="815" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O815" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="816" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="816" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O816" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="817" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="817" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O817" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="818" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="818" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O818" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="819" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="819" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O819" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="820" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="820" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O820" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="821" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="821" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O821" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="822" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="822" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O822" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="823" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="823" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O823" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="824" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="824" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O824" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="825" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="825" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O825" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="826" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="826" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O826" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="827" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="827" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O827" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="828" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="828" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O828" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="829" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="829" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O829" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="830" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="830" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O830" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="831" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="831" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O831" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="832" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="832" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O832" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="833" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="833" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O833" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="834" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="834" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O834" t="str">
         <f t="shared" ref="O834:O897" si="13">TRIM(A834&amp;" "&amp;B834)</f>
         <v/>
       </c>
     </row>
-    <row r="835" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="835" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O835" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="836" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="836" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O836" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="837" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="837" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O837" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="838" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="838" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O838" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="839" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="839" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O839" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="840" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="840" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O840" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="841" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="841" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O841" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="842" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="842" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O842" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="843" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="843" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O843" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="844" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="844" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O844" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="845" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="845" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O845" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="846" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="846" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O846" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="847" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="847" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O847" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="848" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="848" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O848" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="849" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="849" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O849" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="850" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="850" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O850" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="851" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="851" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O851" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="852" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="852" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O852" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="853" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="853" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O853" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="854" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="854" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O854" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="855" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="855" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O855" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="856" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="856" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O856" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="857" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="857" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O857" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="858" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="858" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O858" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="859" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="859" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O859" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="860" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="860" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O860" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="861" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="861" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O861" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="862" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="862" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O862" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="863" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="863" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O863" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="864" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="864" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O864" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="865" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="865" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O865" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="866" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="866" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O866" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="867" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="867" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O867" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="868" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="868" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O868" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="869" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="869" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O869" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="870" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="870" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O870" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="871" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="871" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O871" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="872" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="872" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O872" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="873" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="873" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O873" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="874" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="874" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O874" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="875" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="875" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O875" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="876" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="876" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O876" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="877" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="877" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O877" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="878" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="878" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O878" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="879" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="879" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O879" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="880" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="880" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O880" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="881" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="881" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O881" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="882" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="882" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O882" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="883" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="883" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O883" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="884" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="884" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O884" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="885" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="885" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O885" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="886" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="886" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O886" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="887" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="887" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O887" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="888" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="888" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O888" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="889" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="889" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O889" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="890" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="890" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O890" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="891" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="891" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O891" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="892" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="892" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O892" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="893" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="893" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O893" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="894" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="894" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O894" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="895" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="895" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O895" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="896" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="896" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O896" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="897" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="897" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O897" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="898" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="898" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O898" t="str">
         <f t="shared" ref="O898:O961" si="14">TRIM(A898&amp;" "&amp;B898)</f>
         <v/>
       </c>
     </row>
-    <row r="899" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="899" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O899" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="900" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="900" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O900" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="901" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="901" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O901" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="902" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="902" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O902" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="903" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="903" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O903" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="904" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="904" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O904" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="905" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="905" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O905" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="906" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="906" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O906" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="907" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="907" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O907" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="908" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="908" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O908" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="909" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="909" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O909" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="910" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="910" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O910" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="911" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="911" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O911" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="912" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="912" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O912" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="913" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="913" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O913" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="914" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="914" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O914" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="915" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="915" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O915" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="916" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="916" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O916" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="917" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="917" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O917" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="918" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="918" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O918" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="919" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="919" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O919" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="920" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="920" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O920" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="921" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="921" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O921" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="922" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="922" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O922" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="923" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="923" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O923" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="924" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="924" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O924" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="925" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="925" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O925" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="926" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="926" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O926" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="927" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="927" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O927" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="928" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="928" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O928" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="929" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="929" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O929" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="930" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="930" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O930" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="931" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="931" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O931" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="932" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="932" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O932" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="933" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="933" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O933" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="934" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="934" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O934" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="935" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="935" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O935" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="936" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="936" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O936" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="937" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="937" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O937" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="938" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="938" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O938" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="939" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="939" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O939" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="940" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="940" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O940" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="941" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="941" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O941" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="942" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="942" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O942" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="943" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="943" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O943" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="944" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="944" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O944" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="945" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="945" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O945" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="946" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="946" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O946" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="947" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="947" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O947" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="948" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="948" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O948" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="949" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="949" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O949" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="950" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="950" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O950" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="951" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="951" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O951" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="952" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="952" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O952" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="953" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="953" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O953" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="954" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="954" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O954" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="955" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="955" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O955" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="956" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="956" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O956" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="957" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="957" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O957" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="958" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="958" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O958" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="959" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="959" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O959" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="960" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="960" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O960" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="961" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="961" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O961" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="962" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="962" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O962" t="str">
         <f t="shared" ref="O962:O1001" si="15">TRIM(A962&amp;" "&amp;B962)</f>
         <v/>
       </c>
     </row>
-    <row r="963" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="963" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O963" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="964" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="964" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O964" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="965" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="965" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O965" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="966" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="966" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O966" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="967" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="967" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O967" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="968" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="968" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O968" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="969" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="969" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O969" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="970" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="970" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O970" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="971" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="971" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O971" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="972" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="972" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O972" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="973" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="973" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O973" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="974" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="974" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O974" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="975" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="975" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O975" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="976" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="976" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O976" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="977" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="977" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O977" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="978" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="978" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O978" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="979" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="979" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O979" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="980" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="980" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O980" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="981" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="981" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O981" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="982" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="982" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O982" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="983" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="983" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O983" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="984" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="984" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O984" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="985" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="985" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O985" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="986" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="986" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O986" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="987" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="987" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O987" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="988" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="988" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O988" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="989" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="989" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O989" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="990" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="990" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O990" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="991" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="991" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O991" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="992" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="992" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O992" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="993" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="993" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O993" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="994" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="994" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O994" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="995" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="995" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O995" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="996" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="996" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O996" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="997" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="997" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O997" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="998" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="998" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O998" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="999" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="999" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O999" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1000" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="1000" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1000" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1001" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="1001" spans="15:15" x14ac:dyDescent="0.25">
       <c r="O1001" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -8913,19 +8913,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="216" zoomScaleNormal="216" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -8993,27 +8993,27 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView zoomScale="252" zoomScaleNormal="252" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Personnel!$O$2</f>
         <v>TRName1 TRSurname1</v>
@@ -9078,7 +9078,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Personnel!$O$3</f>
         <v>TRName2 TRSurname2</v>
@@ -9135,16 +9135,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9188,15 +9188,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -9238,16 +9238,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -9300,13 +9300,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -9346,15 +9346,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -9399,9 +9399,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -9508,9 +9508,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>226</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>228</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>235</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>235</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>241</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>241</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>241</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -9787,14 +9787,14 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -9840,15 +9840,15 @@
       <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -9936,14 +9936,14 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -10096,16 +10096,16 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>337</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>338</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>339</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>340</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>342</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -10422,14 +10422,14 @@
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10446,7 +10446,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -10487,19 +10487,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10525,7 +10525,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -10562,7 +10562,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -10579,7 +10579,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -10599,7 +10599,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -10619,7 +10619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -10686,14 +10686,14 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10707,7 +10707,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>135</v>
       </c>
@@ -10739,14 +10739,14 @@
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>136</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>138</v>
       </c>

--- a/data/import_template_dep_dropdowns_with_sample_v2.xlsx
+++ b/data/import_template_dep_dropdowns_with_sample_v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\group8\Documents\DEV\ai-e-nis\mil-tracker\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atana/Dev/electron/mil-tracker/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{611A4341-D278-4202-BCCC-68B2B96803EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE13EE44-C630-0E4E-A8F9-452FED133229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="780" firstSheet="2" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16880" yWindow="660" windowWidth="16560" windowHeight="19140" tabRatio="780" firstSheet="11" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Enums" sheetId="1" state="hidden" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Countries" sheetId="3" r:id="rId3"/>
     <sheet name="Branches" sheetId="4" r:id="rId4"/>
     <sheet name="Ranks" sheetId="5" r:id="rId5"/>
-    <sheet name="Organizations" sheetId="6" r:id="rId6"/>
-    <sheet name="Units" sheetId="7" r:id="rId7"/>
-    <sheet name="Specialties" sheetId="8" r:id="rId8"/>
-    <sheet name="Positions" sheetId="9" r:id="rId9"/>
+    <sheet name="Positions" sheetId="9" r:id="rId6"/>
+    <sheet name="Specialties" sheetId="8" r:id="rId7"/>
+    <sheet name="Organizations" sheetId="6" r:id="rId8"/>
+    <sheet name="Units" sheetId="7" r:id="rId9"/>
     <sheet name="Personnel" sheetId="10" r:id="rId10"/>
     <sheet name="Promotions" sheetId="11" r:id="rId11"/>
     <sheet name="PersonPostings" sheetId="12" r:id="rId12"/>
@@ -1364,6 +1364,31 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="T_Positions" displayName="T_Positions" ref="A1:C401">
+  <autoFilter ref="A1:C401" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="code"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="description"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="T_Specialties" displayName="T_Specialties" ref="A1:D401">
+  <autoFilter ref="A1:D401" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="code"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="branch"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="T_Organizations" displayName="T_Organizations" ref="A1:E401">
   <autoFilter ref="A1:E401" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
@@ -1377,7 +1402,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="T_Units" displayName="T_Units" ref="A1:H401">
   <autoFilter ref="A1:H401" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="8">
@@ -1389,31 +1414,6 @@
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="parentCode"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="latitude"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="longitude"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="T_Specialties" displayName="T_Specialties" ref="A1:D401">
-  <autoFilter ref="A1:D401" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="code"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="description"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="branch"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="T_Positions" displayName="T_Positions" ref="A1:C401">
-  <autoFilter ref="A1:C401" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="code"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="description"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1732,9 +1732,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1742,57 +1742,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1800,27 +1800,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1828,12 +1828,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -1841,72 +1841,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1914,22 +1914,22 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -1937,22 +1937,22 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1960,32 +1960,32 @@
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B49" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B50" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B52" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1993,17 +1993,17 @@
         <v>34</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -2011,17 +2011,17 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B63" t="s">
         <v>57</v>
       </c>
@@ -2043,30 +2043,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>260</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>279</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>TRName1 TRSurname1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>280</v>
       </c>
@@ -2194,7 +2194,7 @@
         <v>TRName2 TRSurname2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>281</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>TRName3 TRSurname3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>282</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>TRName4 TRSurname4</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>283</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>TRName5 TRSurname5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>284</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>TRName6 TRSurname6</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>285</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>TRName7 TRSurname7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>286</v>
       </c>
@@ -2410,7 +2410,7 @@
         <v>TRName8 TRSurname8</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>287</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>TRName9 TRSurname9</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>288</v>
       </c>
@@ -2482,7 +2482,7 @@
         <v>TRName10 TRSurname10</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>289</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>TRName11 TRSurname11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>290</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>TRName12 TRSurname12</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>291</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>TRName13 TRSurname13</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>292</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>TRName14 TRSurname14</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>TRName15 TRSurname15</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>294</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>Giorgos Ioannou</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -2734,7 +2734,7 @@
         <v>Nikolaos Papadopoulos</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>296</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>Maria Kosta</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>297</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>John Smith</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>298</v>
       </c>
@@ -2842,7 +2842,7 @@
         <v>Alice Wright</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>299</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>Hans Müller</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -2914,7 +2914,7 @@
         <v>Pierre Dubois</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>301</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>Marco Rossi</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>302</v>
       </c>
@@ -2986,7 +2986,7 @@
         <v>Carlos Garcia</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>303</v>
       </c>
@@ -3022,5851 +3022,5851 @@
         <v>Anna Kowalska</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O27" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O28" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O29" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O30" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O31" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="O32" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O33" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O34" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O35" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O36" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O37" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O38" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O39" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O40" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O41" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O43" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O44" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O45" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O46" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O47" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O48" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O49" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O50" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O51" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O52" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O53" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O54" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O55" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O56" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O61" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O62" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O63" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O64" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O66" t="str">
         <f t="shared" ref="O66:O129" si="1">TRIM(A66&amp;" "&amp;B66)</f>
         <v/>
       </c>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O67" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O68" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O69" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O70" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O71" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O72" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O73" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O74" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O75" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O76" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O77" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O78" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O79" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O81" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O83" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O84" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O85" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O86" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O87" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O88" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O89" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O90" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O92" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O93" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O94" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O95" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O96" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O97" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O98" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O99" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O100" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="101" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O101" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="102" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O102" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="103" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O103" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O104" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O105" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O106" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O107" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O108" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O109" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O110" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O111" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O112" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O113" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O114" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O115" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O116" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O117" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O118" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O119" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O120" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="121" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O121" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="122" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O122" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="123" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O123" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="124" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O124" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="125" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O125" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="126" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O126" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="127" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O127" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="128" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O128" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="129" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O129" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
     </row>
-    <row r="130" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O130" t="str">
         <f t="shared" ref="O130:O193" si="2">TRIM(A130&amp;" "&amp;B130)</f>
         <v/>
       </c>
     </row>
-    <row r="131" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O131" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="132" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O132" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="133" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O133" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="134" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O134" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="135" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O135" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="136" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O136" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="137" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O137" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="138" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O138" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="139" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O139" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="140" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O140" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="141" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O141" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="142" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O142" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="143" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O143" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="144" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O144" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="145" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O145" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="146" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O146" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="147" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O147" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="148" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O148" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="149" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="150" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="151" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O151" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="152" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O152" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="153" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O153" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="154" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O154" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="155" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O155" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="156" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O156" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="157" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O157" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="158" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O158" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="159" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O159" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="160" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O160" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="161" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O161" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="162" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O162" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="163" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O163" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="164" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O164" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="165" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O165" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="166" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O166" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="167" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O167" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="168" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O168" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="169" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O169" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="170" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O170" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="171" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O171" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="172" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O172" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="173" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O173" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="174" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O174" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="175" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O175" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="176" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O176" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="177" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O177" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="178" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O178" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="179" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O179" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="180" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O180" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="181" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O181" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="182" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O182" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="183" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O183" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="184" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O184" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="185" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O185" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="186" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O186" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="187" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O187" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="188" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O188" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="189" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O189" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="190" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O190" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="191" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O191" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="192" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O192" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="193" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O193" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="194" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O194" t="str">
         <f t="shared" ref="O194:O257" si="3">TRIM(A194&amp;" "&amp;B194)</f>
         <v/>
       </c>
     </row>
-    <row r="195" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O195" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="196" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O196" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="197" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O197" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="198" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O198" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="199" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O199" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="200" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O200" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="201" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O201" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="202" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O202" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="203" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O203" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="204" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O204" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="205" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O205" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="206" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O206" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="207" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O207" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="208" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O208" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="209" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O209" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="210" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O210" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="211" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O211" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="212" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O212" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="213" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O213" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="214" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O214" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="215" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O215" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="216" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O216" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="217" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O217" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="218" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O218" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="219" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O219" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="220" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O220" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="221" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O221" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="222" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O222" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="223" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O223" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="224" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="225" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O225" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="226" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="227" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O227" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="228" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O228" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="229" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O229" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="230" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O230" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="231" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O231" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="232" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O232" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="233" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O233" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="234" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O234" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="235" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O235" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="236" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O236" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="237" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O237" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="238" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O238" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="239" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O239" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="240" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O240" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="241" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O241" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="242" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O242" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="243" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O243" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="244" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O244" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="245" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O245" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="246" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O246" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="247" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O247" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="248" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O248" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="249" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O249" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="250" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O250" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="251" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O251" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="252" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O252" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="253" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O253" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="254" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O254" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="255" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O255" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="256" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O256" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="257" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O257" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="258" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O258" t="str">
         <f t="shared" ref="O258:O321" si="4">TRIM(A258&amp;" "&amp;B258)</f>
         <v/>
       </c>
     </row>
-    <row r="259" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O259" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="260" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O260" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="261" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O261" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="262" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O262" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="263" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O263" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="264" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O264" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="265" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O265" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="266" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O266" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="267" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O267" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="268" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O268" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="269" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O269" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="270" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O270" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="271" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O271" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="272" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O272" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="273" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O273" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="274" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O274" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="275" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O275" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="276" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O276" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="277" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O277" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="278" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O278" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="279" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O279" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="280" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O280" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="281" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O281" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="282" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O282" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="283" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O283" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="284" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O284" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="285" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O285" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="286" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O286" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="287" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O287" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="288" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O288" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="289" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O289" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="290" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O290" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="291" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O291" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="292" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O292" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="293" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O293" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="294" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O294" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="295" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O295" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="296" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O296" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="297" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O297" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="298" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O298" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="299" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O299" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="300" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O300" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="301" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O301" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="302" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O302" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="303" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O303" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="304" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O304" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="305" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="305" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O305" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="306" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="306" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O306" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="307" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O307" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="308" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O308" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="309" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="309" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O309" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="310" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="310" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O310" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="311" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="311" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O311" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="312" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="312" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O312" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="313" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="313" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O313" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="314" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O314" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="315" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O315" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="316" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O316" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="317" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O317" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="318" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O318" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="319" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O319" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="320" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O320" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="321" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O321" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
     </row>
-    <row r="322" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O322" t="str">
         <f t="shared" ref="O322:O385" si="5">TRIM(A322&amp;" "&amp;B322)</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O323" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="324" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O324" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="325" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O325" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="326" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O326" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="327" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O327" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="328" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O328" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="329" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O329" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="330" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O330" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="331" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O331" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="332" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="332" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O332" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="333" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O333" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="334" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O334" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="335" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O335" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="336" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O336" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="337" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O337" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="338" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="338" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O338" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="339" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O339" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="340" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O340" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="341" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="341" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O341" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="342" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O342" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="343" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O343" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="344" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="344" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O344" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="345" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O345" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="346" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O346" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="347" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="347" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O347" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="348" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O348" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="349" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O349" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="350" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="350" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O350" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="351" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O351" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="352" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O352" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="353" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="353" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O353" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="354" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O354" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="355" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O355" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="356" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="356" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O356" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="357" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O357" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="358" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O358" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="359" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O359" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="360" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O360" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="361" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O361" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="362" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O362" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="363" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O363" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="364" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O364" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="365" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O365" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="366" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O366" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="367" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O367" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="368" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="368" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O368" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="369" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="369" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O369" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="370" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="370" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O370" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="371" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="371" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O371" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="372" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="372" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O372" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="373" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="373" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O373" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="374" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="374" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O374" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="375" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="375" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O375" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="376" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="376" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O376" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="377" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="377" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O377" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="378" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="378" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O378" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="379" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="379" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O379" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="380" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="380" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O380" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="381" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="381" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O381" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="382" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="382" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O382" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="383" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="383" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O383" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="384" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="384" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O384" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="385" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="385" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O385" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
     </row>
-    <row r="386" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="386" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O386" t="str">
         <f t="shared" ref="O386:O449" si="6">TRIM(A386&amp;" "&amp;B386)</f>
         <v/>
       </c>
     </row>
-    <row r="387" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="387" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O387" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="388" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="388" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O388" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="389" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="389" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O389" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="390" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="390" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O390" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="391" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="391" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O391" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="392" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="392" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O392" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="393" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="393" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O393" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="394" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="394" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O394" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="395" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="395" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O395" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="396" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="396" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O396" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="397" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="397" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O397" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="398" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="398" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O398" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="399" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="399" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O399" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="400" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="400" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O400" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="401" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="401" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O401" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="402" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="402" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O402" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="403" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="403" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O403" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="404" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O404" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="405" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O405" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="406" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O406" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="407" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O407" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="408" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O408" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="409" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O409" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="410" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O410" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="411" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O411" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="412" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O412" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="413" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O413" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="414" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O414" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="415" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O415" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="416" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O416" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="417" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O417" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="418" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O418" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="419" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O419" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="420" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O420" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="421" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O421" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="422" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O422" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="423" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O423" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="424" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O424" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="425" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O425" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="426" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O426" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="427" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O427" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="428" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O428" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="429" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O429" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="430" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O430" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="431" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O431" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="432" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O432" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="433" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O433" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="434" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O434" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="435" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O435" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="436" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O436" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="437" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O437" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="438" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O438" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="439" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O439" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="440" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O440" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="441" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O441" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="442" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O442" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="443" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="443" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O443" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="444" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="444" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O444" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="445" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="445" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O445" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="446" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="446" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O446" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="447" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="447" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O447" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="448" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="448" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O448" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="449" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="449" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O449" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
     </row>
-    <row r="450" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="450" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O450" t="str">
         <f t="shared" ref="O450:O513" si="7">TRIM(A450&amp;" "&amp;B450)</f>
         <v/>
       </c>
     </row>
-    <row r="451" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="451" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O451" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="452" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="452" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O452" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="453" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="453" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O453" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="454" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="454" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O454" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="455" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="455" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O455" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="456" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="456" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O456" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="457" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="457" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O457" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="458" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="458" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O458" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="459" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="459" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O459" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="460" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="460" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O460" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="461" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="461" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O461" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="462" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="462" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O462" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="463" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="463" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O463" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="464" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="464" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O464" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="465" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="465" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O465" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="466" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="466" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O466" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="467" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="467" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O467" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="468" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="468" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O468" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="469" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="469" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O469" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="470" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="470" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O470" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="471" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="471" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O471" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="472" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="472" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O472" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="473" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="473" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O473" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="474" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="474" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O474" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="475" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="475" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O475" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="476" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="476" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O476" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="477" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="477" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O477" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="478" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="478" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O478" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="479" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="479" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O479" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="480" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="480" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O480" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="481" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="481" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O481" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="482" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="482" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O482" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="483" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="483" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O483" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="484" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="484" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O484" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="485" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="485" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O485" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="486" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="486" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O486" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="487" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="487" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O487" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="488" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="488" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O488" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="489" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="489" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O489" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="490" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="490" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O490" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="491" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="491" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O491" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="492" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="492" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O492" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="493" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="493" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O493" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="494" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="494" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O494" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="495" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="495" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O495" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="496" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="496" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O496" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="497" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="497" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O497" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="498" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="498" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O498" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="499" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="499" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O499" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="500" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="500" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O500" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="501" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="501" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O501" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="502" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="502" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O502" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="503" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="503" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O503" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="504" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="504" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O504" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="505" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="505" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O505" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="506" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="506" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O506" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="507" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="507" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O507" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="508" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="508" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O508" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="509" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="509" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O509" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="510" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="510" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O510" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="511" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="511" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O511" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="512" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="512" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O512" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="513" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="513" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O513" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
     </row>
-    <row r="514" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="514" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O514" t="str">
         <f t="shared" ref="O514:O577" si="8">TRIM(A514&amp;" "&amp;B514)</f>
         <v/>
       </c>
     </row>
-    <row r="515" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="515" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O515" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="516" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="516" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O516" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="517" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="517" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O517" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="518" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="518" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O518" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="519" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="519" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O519" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="520" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="520" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O520" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="521" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="521" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O521" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="522" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="522" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O522" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="523" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="523" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O523" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="524" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="524" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O524" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="525" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="525" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O525" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="526" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="526" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O526" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="527" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="527" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O527" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="528" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="528" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O528" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="529" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="529" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O529" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="530" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="530" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O530" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="531" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="531" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O531" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="532" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="532" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O532" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="533" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="533" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O533" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="534" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="534" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O534" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="535" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="535" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O535" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="536" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="536" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O536" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="537" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="537" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O537" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="538" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="538" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O538" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="539" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="539" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O539" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="540" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="540" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O540" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="541" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="541" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O541" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="542" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="542" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O542" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="543" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="543" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O543" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="544" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="544" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O544" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="545" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="545" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O545" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="546" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="546" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O546" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="547" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="547" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O547" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="548" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="548" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O548" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="549" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="549" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O549" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="550" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="550" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O550" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="551" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="551" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O551" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="552" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="552" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O552" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="553" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="553" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O553" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="554" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="554" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O554" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="555" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="555" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O555" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="556" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="556" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O556" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="557" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="557" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O557" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="558" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="558" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O558" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="559" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="559" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O559" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="560" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="560" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O560" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="561" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="561" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O561" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="562" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="562" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O562" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="563" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="563" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O563" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="564" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="564" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O564" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="565" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="565" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O565" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="566" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="566" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O566" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="567" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="567" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O567" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="568" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="568" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O568" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="569" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="569" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O569" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="570" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="570" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O570" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="571" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="571" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O571" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="572" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="572" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O572" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="573" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="573" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O573" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="574" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="574" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O574" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="575" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="575" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O575" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="576" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="576" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O576" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="577" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="577" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O577" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
-    <row r="578" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="578" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O578" t="str">
         <f t="shared" ref="O578:O641" si="9">TRIM(A578&amp;" "&amp;B578)</f>
         <v/>
       </c>
     </row>
-    <row r="579" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="579" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O579" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="580" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="580" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O580" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="581" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="581" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O581" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="582" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="582" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O582" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="583" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="583" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O583" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="584" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="584" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O584" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="585" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="585" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O585" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="586" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="586" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O586" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="587" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="587" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O587" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="588" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="588" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O588" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="589" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="589" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O589" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="590" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="590" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O590" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="591" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="591" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O591" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="592" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="592" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O592" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="593" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="593" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O593" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="594" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="594" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O594" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="595" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="595" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O595" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="596" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="596" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O596" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="597" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="597" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O597" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="598" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="598" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O598" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="599" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="599" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O599" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="600" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="600" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O600" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="601" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="601" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O601" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="602" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="602" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O602" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="603" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="603" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O603" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="604" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="604" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O604" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="605" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="605" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O605" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="606" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="606" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O606" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="607" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="607" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O607" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="608" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="608" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O608" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="609" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="609" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O609" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="610" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="610" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O610" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="611" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="611" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O611" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="612" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="612" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O612" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="613" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="613" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O613" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="614" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="614" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O614" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="615" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="615" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O615" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="616" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="616" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O616" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="617" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="617" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O617" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="618" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="618" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O618" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="619" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="619" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O619" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="620" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="620" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O620" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="621" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="621" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O621" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="622" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="622" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O622" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="623" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="623" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O623" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="624" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="624" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O624" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="625" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="625" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O625" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="626" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="626" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O626" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="627" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="627" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O627" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="628" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="628" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O628" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="629" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="629" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O629" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="630" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="630" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O630" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="631" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="631" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O631" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="632" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="632" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O632" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="633" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="633" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O633" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="634" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="634" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O634" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="635" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="635" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O635" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="636" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="636" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O636" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="637" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="637" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O637" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="638" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="638" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O638" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="639" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="639" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O639" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="640" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="640" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O640" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="641" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="641" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O641" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
     </row>
-    <row r="642" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="642" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O642" t="str">
         <f t="shared" ref="O642:O705" si="10">TRIM(A642&amp;" "&amp;B642)</f>
         <v/>
       </c>
     </row>
-    <row r="643" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="643" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O643" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="644" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="644" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O644" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="645" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="645" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O645" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="646" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="646" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O646" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="647" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="647" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O647" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="648" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="648" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O648" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="649" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="649" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O649" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="650" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="650" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O650" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="651" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="651" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O651" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="652" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="652" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O652" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="653" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="653" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O653" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="654" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="654" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O654" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="655" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="655" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O655" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="656" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="656" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O656" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="657" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="657" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O657" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="658" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="658" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O658" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="659" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="659" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O659" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="660" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="660" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O660" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="661" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="661" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O661" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="662" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="662" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O662" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="663" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="663" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O663" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="664" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="664" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O664" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="665" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="665" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O665" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="666" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="666" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O666" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="667" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="667" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O667" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="668" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="668" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O668" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="669" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="669" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O669" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="670" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="670" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O670" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="671" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="671" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O671" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="672" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="672" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O672" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="673" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="673" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O673" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="674" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="674" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O674" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="675" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="675" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O675" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="676" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="676" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O676" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="677" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="677" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O677" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="678" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="678" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O678" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="679" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="679" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O679" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="680" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="680" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O680" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="681" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="681" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O681" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="682" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="682" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O682" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="683" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="683" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O683" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="684" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="684" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O684" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="685" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="685" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O685" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="686" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="686" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O686" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="687" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="687" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O687" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="688" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="688" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O688" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="689" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="689" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O689" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="690" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="690" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O690" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="691" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="691" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O691" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="692" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="692" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O692" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="693" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="693" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O693" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="694" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="694" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O694" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="695" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="695" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O695" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="696" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="696" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O696" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="697" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="697" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O697" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="698" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="698" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O698" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="699" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="699" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O699" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="700" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="700" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O700" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="701" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="701" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O701" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="702" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="702" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O702" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="703" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="703" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O703" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="704" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="704" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O704" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="705" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="705" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O705" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
     </row>
-    <row r="706" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="706" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O706" t="str">
         <f t="shared" ref="O706:O769" si="11">TRIM(A706&amp;" "&amp;B706)</f>
         <v/>
       </c>
     </row>
-    <row r="707" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="707" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O707" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="708" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="708" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O708" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="709" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="709" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O709" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="710" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="710" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O710" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="711" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="711" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O711" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="712" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="712" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O712" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="713" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="713" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O713" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="714" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="714" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O714" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="715" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="715" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O715" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="716" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="716" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O716" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="717" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="717" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O717" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="718" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="718" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O718" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="719" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="719" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O719" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="720" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="720" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O720" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="721" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="721" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O721" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="722" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="722" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O722" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="723" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="723" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O723" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="724" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="724" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O724" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="725" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="725" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O725" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="726" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="726" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O726" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="727" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="727" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O727" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="728" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="728" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O728" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="729" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="729" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O729" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="730" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="730" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O730" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="731" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="731" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O731" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="732" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="732" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O732" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="733" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="733" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O733" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="734" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="734" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O734" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="735" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="735" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O735" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="736" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="736" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O736" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="737" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="737" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O737" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="738" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="738" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O738" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="739" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="739" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O739" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="740" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="740" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O740" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="741" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="741" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O741" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="742" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="742" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O742" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="743" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="743" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O743" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="744" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="744" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O744" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="745" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="745" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O745" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="746" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="746" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O746" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="747" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="747" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O747" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="748" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="748" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O748" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="749" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="749" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O749" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="750" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="750" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O750" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="751" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="751" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O751" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="752" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="752" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O752" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="753" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="753" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O753" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="754" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="754" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O754" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="755" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="755" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O755" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="756" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="756" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O756" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="757" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="757" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O757" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="758" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="758" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O758" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="759" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="759" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O759" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="760" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="760" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O760" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="761" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="761" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O761" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="762" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="762" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O762" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="763" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="763" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O763" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="764" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="764" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O764" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="765" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="765" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O765" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="766" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="766" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O766" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="767" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="767" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O767" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="768" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="768" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O768" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="769" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="769" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O769" t="str">
         <f t="shared" si="11"/>
         <v/>
       </c>
     </row>
-    <row r="770" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="770" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O770" t="str">
         <f t="shared" ref="O770:O833" si="12">TRIM(A770&amp;" "&amp;B770)</f>
         <v/>
       </c>
     </row>
-    <row r="771" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="771" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O771" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="772" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="772" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O772" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="773" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="773" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O773" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="774" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="774" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O774" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="775" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="775" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O775" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="776" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="776" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O776" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="777" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="777" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O777" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="778" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="778" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O778" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="779" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="779" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O779" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="780" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="780" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O780" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="781" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="781" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O781" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="782" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="782" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O782" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="783" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="783" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O783" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="784" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="784" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O784" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="785" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="785" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O785" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="786" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="786" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O786" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="787" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="787" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O787" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="788" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="788" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O788" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="789" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="789" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O789" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="790" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="790" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O790" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="791" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="791" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O791" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="792" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="792" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O792" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="793" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="793" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O793" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="794" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="794" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O794" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="795" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="795" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O795" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="796" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="796" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O796" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="797" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="797" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O797" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="798" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="798" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O798" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="799" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="799" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O799" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="800" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="800" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O800" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="801" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="801" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O801" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="802" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="802" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O802" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="803" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="803" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O803" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="804" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="804" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O804" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="805" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="805" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O805" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="806" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="806" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O806" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="807" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="807" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O807" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="808" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="808" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O808" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="809" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="809" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O809" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="810" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="810" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O810" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="811" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="811" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O811" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="812" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="812" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O812" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="813" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="813" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O813" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="814" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="814" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O814" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="815" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="815" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O815" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="816" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="816" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O816" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="817" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="817" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O817" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="818" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="818" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O818" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="819" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="819" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O819" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="820" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="820" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O820" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="821" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="821" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O821" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="822" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="822" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O822" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="823" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="823" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O823" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="824" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="824" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O824" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="825" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="825" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O825" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="826" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="826" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O826" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="827" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="827" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O827" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="828" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="828" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O828" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="829" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="829" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O829" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="830" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="830" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O830" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="831" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="831" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O831" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="832" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="832" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O832" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="833" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="833" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O833" t="str">
         <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
-    <row r="834" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="834" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O834" t="str">
         <f t="shared" ref="O834:O897" si="13">TRIM(A834&amp;" "&amp;B834)</f>
         <v/>
       </c>
     </row>
-    <row r="835" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="835" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O835" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="836" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="836" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O836" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="837" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="837" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O837" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="838" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="838" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O838" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="839" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="839" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O839" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="840" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="840" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O840" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="841" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="841" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O841" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="842" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="842" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O842" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="843" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="843" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O843" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="844" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="844" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O844" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="845" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="845" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O845" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="846" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="846" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O846" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="847" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="847" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O847" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="848" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="848" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O848" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="849" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="849" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O849" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="850" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="850" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O850" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="851" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="851" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O851" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="852" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="852" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O852" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="853" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="853" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O853" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="854" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="854" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O854" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="855" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="855" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O855" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="856" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="856" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O856" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="857" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="857" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O857" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="858" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="858" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O858" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="859" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="859" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O859" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="860" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="860" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O860" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="861" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="861" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O861" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="862" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="862" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O862" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="863" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="863" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O863" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="864" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="864" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O864" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="865" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="865" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O865" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="866" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="866" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O866" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="867" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="867" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O867" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="868" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="868" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O868" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="869" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="869" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O869" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="870" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="870" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O870" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="871" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="871" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O871" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="872" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="872" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O872" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="873" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="873" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O873" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="874" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="874" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O874" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="875" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="875" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O875" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="876" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="876" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O876" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="877" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="877" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O877" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="878" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="878" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O878" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="879" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="879" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O879" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="880" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="880" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O880" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="881" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="881" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O881" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="882" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="882" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O882" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="883" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="883" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O883" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="884" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="884" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O884" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="885" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="885" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O885" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="886" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="886" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O886" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="887" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="887" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O887" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="888" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="888" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O888" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="889" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="889" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O889" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="890" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="890" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O890" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="891" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="891" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O891" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="892" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="892" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O892" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="893" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="893" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O893" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="894" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="894" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O894" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="895" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="895" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O895" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="896" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="896" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O896" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="897" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="897" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O897" t="str">
         <f t="shared" si="13"/>
         <v/>
       </c>
     </row>
-    <row r="898" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="898" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O898" t="str">
         <f t="shared" ref="O898:O961" si="14">TRIM(A898&amp;" "&amp;B898)</f>
         <v/>
       </c>
     </row>
-    <row r="899" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="899" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O899" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="900" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="900" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O900" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="901" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="901" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O901" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="902" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="902" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O902" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="903" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="903" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O903" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="904" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="904" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O904" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="905" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="905" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O905" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="906" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="906" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O906" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="907" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="907" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O907" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="908" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="908" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O908" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="909" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="909" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O909" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="910" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="910" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O910" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="911" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="911" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O911" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="912" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="912" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O912" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="913" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="913" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O913" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="914" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="914" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O914" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="915" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="915" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O915" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="916" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="916" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O916" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="917" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="917" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O917" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="918" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="918" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O918" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="919" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="919" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O919" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="920" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="920" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O920" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="921" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="921" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O921" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="922" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="922" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O922" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="923" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="923" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O923" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="924" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="924" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O924" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="925" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="925" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O925" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="926" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="926" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O926" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="927" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="927" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O927" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="928" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="928" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O928" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="929" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="929" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O929" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="930" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="930" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O930" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="931" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="931" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O931" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="932" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="932" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O932" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="933" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="933" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O933" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="934" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="934" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O934" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="935" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="935" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O935" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="936" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="936" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O936" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="937" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="937" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O937" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="938" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="938" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O938" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="939" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="939" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O939" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="940" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="940" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O940" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="941" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="941" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O941" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="942" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="942" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O942" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="943" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="943" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O943" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="944" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="944" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O944" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="945" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="945" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O945" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="946" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="946" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O946" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="947" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="947" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O947" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="948" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="948" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O948" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="949" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="949" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O949" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="950" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="950" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O950" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="951" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="951" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O951" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="952" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="952" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O952" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="953" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="953" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O953" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="954" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="954" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O954" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="955" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="955" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O955" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="956" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="956" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O956" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="957" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="957" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O957" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="958" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="958" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O958" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="959" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="959" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O959" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="960" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="960" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O960" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="961" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="961" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O961" t="str">
         <f t="shared" si="14"/>
         <v/>
       </c>
     </row>
-    <row r="962" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="962" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O962" t="str">
         <f t="shared" ref="O962:O1001" si="15">TRIM(A962&amp;" "&amp;B962)</f>
         <v/>
       </c>
     </row>
-    <row r="963" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="963" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O963" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="964" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="964" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O964" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="965" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="965" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O965" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="966" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="966" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O966" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="967" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="967" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O967" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="968" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="968" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O968" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="969" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="969" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O969" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="970" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="970" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O970" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="971" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="971" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O971" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="972" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="972" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O972" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="973" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="973" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O973" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="974" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="974" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O974" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="975" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="975" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O975" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="976" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="976" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O976" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="977" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="977" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O977" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="978" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="978" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O978" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="979" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="979" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O979" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="980" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="980" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O980" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="981" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="981" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O981" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="982" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="982" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O982" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="983" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="983" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O983" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="984" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="984" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O984" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="985" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="985" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O985" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="986" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="986" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O986" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="987" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="987" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O987" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="988" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="988" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O988" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="989" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="989" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O989" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="990" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="990" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O990" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="991" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="991" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O991" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="992" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="992" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O992" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="993" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="993" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O993" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="994" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="994" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O994" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="995" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="995" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O995" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="996" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="996" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O996" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="997" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="997" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O997" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="998" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="998" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O998" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="999" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="999" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O999" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1000" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="1000" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1000" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
     </row>
-    <row r="1001" spans="15:15" x14ac:dyDescent="0.25">
+    <row r="1001" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O1001" t="str">
         <f t="shared" si="15"/>
         <v/>
@@ -8913,19 +8913,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>269</v>
       </c>
@@ -8939,7 +8939,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>345</v>
       </c>
@@ -8950,7 +8950,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>346</v>
       </c>
@@ -8961,7 +8961,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>346</v>
       </c>
@@ -8996,24 +8996,24 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>269</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="str">
         <f>Personnel!$O$2</f>
         <v>TRName1 TRSurname1</v>
@@ -9078,7 +9078,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="str">
         <f>Personnel!$O$3</f>
         <v>TRName2 TRSurname2</v>
@@ -9135,16 +9135,16 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9188,15 +9188,15 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>275</v>
       </c>
@@ -9238,16 +9238,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>276</v>
       </c>
@@ -9264,7 +9264,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45936</v>
       </c>
@@ -9300,13 +9300,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
@@ -9317,7 +9317,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -9346,15 +9346,15 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>278</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>213</v>
       </c>
@@ -9399,9 +9399,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>76</v>
       </c>
@@ -9417,7 +9417,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>78</v>
       </c>
@@ -9425,7 +9425,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>80</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>82</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>84</v>
       </c>
@@ -9449,7 +9449,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>86</v>
       </c>
@@ -9457,7 +9457,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -9465,7 +9465,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>92</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -9508,9 +9508,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>215</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>226</v>
       </c>
@@ -9526,7 +9526,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>226</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>226</v>
       </c>
@@ -9542,7 +9542,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>226</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>226</v>
       </c>
@@ -9558,7 +9558,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>228</v>
       </c>
@@ -9566,7 +9566,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>228</v>
       </c>
@@ -9574,7 +9574,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>228</v>
       </c>
@@ -9582,7 +9582,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>231</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>231</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>231</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>234</v>
       </c>
@@ -9614,7 +9614,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>234</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>234</v>
       </c>
@@ -9630,7 +9630,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>235</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>235</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>235</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>238</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>238</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -9686,7 +9686,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>240</v>
       </c>
@@ -9694,7 +9694,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>240</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>241</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>241</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>241</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>243</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>243</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>243</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>246</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>246</v>
       </c>
@@ -9784,17 +9784,17 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9805,7 +9805,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>60</v>
       </c>
@@ -9816,7 +9816,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -9837,18 +9837,18 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="71.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9865,7 +9865,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>67</v>
       </c>
@@ -9876,7 +9876,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -9887,7 +9887,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -9904,7 +9904,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>73</v>
       </c>
@@ -9933,17 +9933,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -9965,7 +9965,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>77</v>
       </c>
@@ -9976,7 +9976,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>79</v>
       </c>
@@ -9987,7 +9987,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>81</v>
       </c>
@@ -9998,7 +9998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>83</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>87</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>93</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -10093,19 +10093,19 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView zoomScale="243" zoomScaleNormal="243" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>98</v>
       </c>
@@ -10139,7 +10139,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>102</v>
       </c>
@@ -10173,7 +10173,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>104</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>106</v>
       </c>
@@ -10207,7 +10207,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -10224,7 +10224,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>110</v>
       </c>
@@ -10241,7 +10241,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>112</v>
       </c>
@@ -10258,7 +10258,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>114</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>337</v>
       </c>
@@ -10292,7 +10292,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>338</v>
       </c>
@@ -10309,7 +10309,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>339</v>
       </c>
@@ -10326,7 +10326,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>340</v>
       </c>
@@ -10343,7 +10343,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>341</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>342</v>
       </c>
@@ -10377,7 +10377,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>343</v>
       </c>
@@ -10415,21 +10415,124 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1001" xr:uid="{00000000-0002-0000-0700-000000000000}">
+      <formula1>NR_BranchesCode</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10446,7 +10549,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -10479,7 +10582,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -10487,19 +10590,19 @@
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>249</v>
       </c>
@@ -10525,7 +10628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -10542,7 +10645,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -10562,7 +10665,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -10579,7 +10682,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>127</v>
       </c>
@@ -10599,7 +10702,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -10619,7 +10722,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>131</v>
       </c>
@@ -10639,7 +10742,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>133</v>
       </c>
@@ -10676,107 +10779,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
-      </c>
-      <c r="D2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1001" xr:uid="{00000000-0002-0000-0700-000000000000}">
-      <formula1>NR_BranchesCode</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>138</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>